--- a/CashFlow/TECH_cashflow.xlsx
+++ b/CashFlow/TECH_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>416000000.0</v>
+        <v>-11066000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>404000000.0</v>
+        <v>-16109000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>297280000.0</v>
+        <v>-14861000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>192183000.0</v>
+        <v>-12106000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>88845000.0</v>
+        <v>-9816000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-7689000.0</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>11852000.0</v>
+        <v>94000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>15805000.0</v>
+        <v>89000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-2096000.0</v>
+        <v>51017000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>2707000.0</v>
+        <v>33132000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3626000.0</v>
+        <v>16967000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>2506000.0</v>
